--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630600.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70F0F67E-0806-485B-8E42-8CBEE90C2239}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D757F265-D0DC-41B8-9246-4DA2D9D13037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T061238.135" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-25T060544.190" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="90">
   <si>
     <t>Do Ty</t>
   </si>
@@ -263,6 +263,21 @@
   </si>
   <si>
     <t>HANCA HASIL EMBRO</t>
+  </si>
+  <si>
+    <t>ATHLOID ECO</t>
+  </si>
+  <si>
+    <t>LOGO S</t>
+  </si>
+  <si>
+    <t>350/KNB/GTX/XII/2023</t>
+  </si>
+  <si>
+    <t>TARMILAH</t>
+  </si>
+  <si>
+    <t>351/KNB/GTX/XII/2023</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1117,7 +1132,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ49"/>
+  <dimension ref="A1:AZ83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7178,80 +7193,4618 @@
       </c>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001670</v>
+      </c>
+      <c r="D46">
+        <v>1201</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45342</v>
+      </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G46">
-        <v>669.93</v>
+        <v>5.77</v>
       </c>
       <c r="H46">
-        <v>673.88</v>
-      </c>
-      <c r="K46">
-        <v>-3.95</v>
+        <v>5.77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
       </c>
       <c r="L46" s="2">
-        <v>10479860</v>
-      </c>
-      <c r="M46" s="2">
-        <v>-60840</v>
+        <v>91800</v>
       </c>
       <c r="N46" s="2">
-        <v>10419020</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>4429</v>
+        <v>91800</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15897</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2104202</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG46">
+        <v>68</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>57300910</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP46">
+        <v>1201</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX46">
+        <v>23001172</v>
+      </c>
+      <c r="AY46">
+        <v>630600</v>
+      </c>
+      <c r="AZ46">
+        <v>1201.6306</v>
       </c>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001671</v>
+      </c>
+      <c r="D47">
+        <v>1201</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45342</v>
+      </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G47">
-        <v>669.93</v>
+        <v>5.69</v>
       </c>
       <c r="H47">
-        <v>669.93</v>
+        <v>5.69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
       </c>
       <c r="L47" s="2">
-        <v>10419020</v>
+        <v>90450</v>
       </c>
       <c r="N47" s="2">
-        <v>10419020</v>
-      </c>
-      <c r="AG47" s="2">
-        <v>4429</v>
+        <v>90450</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47">
+        <v>15897</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2104203</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG47">
+        <v>67</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>57300910</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP47">
+        <v>1201</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX47">
+        <v>23001172</v>
+      </c>
+      <c r="AY47">
+        <v>630600</v>
+      </c>
+      <c r="AZ47">
+        <v>1201.6306</v>
       </c>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001672</v>
+      </c>
+      <c r="D48">
+        <v>1201</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45342</v>
+      </c>
       <c r="F48" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48">
+        <v>0.08</v>
+      </c>
+      <c r="H48">
+        <v>0.08</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1350</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1350</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48">
+        <v>15897</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2104204</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG48">
+        <v>1</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48">
+        <v>57300910</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP48">
+        <v>1201</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX48">
+        <v>23001172</v>
+      </c>
+      <c r="AY48">
+        <v>630600</v>
+      </c>
+      <c r="AZ48">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001673</v>
+      </c>
+      <c r="D49">
+        <v>1201</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="H49">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="2">
+        <v>80500</v>
+      </c>
+      <c r="N49" s="2">
+        <v>80500</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>15897</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2104205</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49">
+        <v>46</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49">
+        <v>57300910</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP49">
+        <v>1201</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX49">
+        <v>23001172</v>
+      </c>
+      <c r="AY49">
+        <v>630600</v>
+      </c>
+      <c r="AZ49">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>24001674</v>
+      </c>
+      <c r="D50">
+        <v>1201</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50">
+        <v>5.95</v>
+      </c>
+      <c r="H50">
+        <v>5.95</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2">
+        <v>94500</v>
+      </c>
+      <c r="N50" s="2">
+        <v>94500</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50">
+        <v>15897</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50">
+        <v>2104206</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG50">
+        <v>54</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI50">
+        <v>57300910</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP50">
+        <v>1201</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX50">
+        <v>23001172</v>
+      </c>
+      <c r="AY50">
+        <v>630600</v>
+      </c>
+      <c r="AZ50">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>24001675</v>
+      </c>
+      <c r="D51">
+        <v>1201</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51">
+        <v>0.11</v>
+      </c>
+      <c r="H51">
+        <v>0.11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1750</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51">
+        <v>15897</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>61</v>
+      </c>
+      <c r="X51">
+        <v>2104207</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG51">
+        <v>1</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI51">
+        <v>57300910</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP51">
+        <v>1201</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX51">
+        <v>23001172</v>
+      </c>
+      <c r="AY51">
+        <v>630600</v>
+      </c>
+      <c r="AZ51">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>24001676</v>
+      </c>
+      <c r="D52">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52">
+        <v>0.21</v>
+      </c>
+      <c r="H52">
+        <v>0.21</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="2">
+        <v>3200</v>
+      </c>
+      <c r="N52" s="2">
+        <v>3200</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52">
+        <v>15092</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+      <c r="X52">
+        <v>2104208</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG52">
+        <v>1</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI52">
+        <v>57300910</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP52">
+        <v>1201</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX52">
+        <v>23001141</v>
+      </c>
+      <c r="AY52">
+        <v>630600</v>
+      </c>
+      <c r="AZ52">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>24001677</v>
+      </c>
+      <c r="D53">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53">
+        <v>0.17</v>
+      </c>
+      <c r="H53">
+        <v>0.17</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>15897</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2104209</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG53">
+        <v>2</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>57300910</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP53">
+        <v>1201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX53">
+        <v>23001170</v>
+      </c>
+      <c r="AY53">
+        <v>630600</v>
+      </c>
+      <c r="AZ53">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24001678</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54">
+        <v>6.62</v>
+      </c>
+      <c r="H54">
+        <v>6.62</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="2">
+        <v>105300</v>
+      </c>
+      <c r="N54" s="2">
+        <v>105300</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15897</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2104210</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG54">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54">
+        <v>57300910</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP54">
+        <v>1201</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX54">
+        <v>23001170</v>
+      </c>
+      <c r="AY54">
+        <v>630600</v>
+      </c>
+      <c r="AZ54">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>24001679</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55">
+        <v>20.55</v>
+      </c>
+      <c r="H55">
+        <v>20.55</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2">
+        <v>326700</v>
+      </c>
+      <c r="N55" s="2">
+        <v>326700</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55">
+        <v>15897</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2104211</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG55">
+        <v>242</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI55">
+        <v>57300910</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP55">
+        <v>1201</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX55">
+        <v>23001170</v>
+      </c>
+      <c r="AY55">
+        <v>630600</v>
+      </c>
+      <c r="AZ55">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>24001680</v>
+      </c>
+      <c r="D56">
+        <v>1201</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56">
+        <v>2.04</v>
+      </c>
+      <c r="H56">
+        <v>2.04</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="2">
+        <v>32400</v>
+      </c>
+      <c r="N56" s="2">
+        <v>32400</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56">
+        <v>15897</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2104212</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG56">
+        <v>24</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI56">
+        <v>57300910</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP56">
+        <v>1201</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX56">
+        <v>23001170</v>
+      </c>
+      <c r="AY56">
+        <v>630600</v>
+      </c>
+      <c r="AZ56">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57">
+        <v>24001681</v>
+      </c>
+      <c r="D57">
+        <v>1201</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57">
+        <v>0.17</v>
+      </c>
+      <c r="H57">
+        <v>0.17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N57" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O57" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>56</v>
+      </c>
+      <c r="R57" t="s">
+        <v>57</v>
+      </c>
+      <c r="S57">
+        <v>15897</v>
+      </c>
+      <c r="T57" t="s">
+        <v>58</v>
+      </c>
+      <c r="U57" t="s">
+        <v>59</v>
+      </c>
+      <c r="V57" t="s">
+        <v>60</v>
+      </c>
+      <c r="W57" t="s">
+        <v>61</v>
+      </c>
+      <c r="X57">
+        <v>2104213</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI57">
+        <v>57300910</v>
+      </c>
+      <c r="AJ57" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN57" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP57">
+        <v>1201</v>
+      </c>
+      <c r="AQ57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX57">
+        <v>23001170</v>
+      </c>
+      <c r="AY57">
+        <v>630600</v>
+      </c>
+      <c r="AZ57">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58">
+        <v>24001682</v>
+      </c>
+      <c r="D58">
+        <v>1201</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G58">
+        <v>0.17</v>
+      </c>
+      <c r="H58">
+        <v>0.17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" t="s">
+        <v>55</v>
+      </c>
+      <c r="L58" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N58" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O58" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>56</v>
+      </c>
+      <c r="R58" t="s">
+        <v>57</v>
+      </c>
+      <c r="S58">
+        <v>15897</v>
+      </c>
+      <c r="T58" t="s">
+        <v>58</v>
+      </c>
+      <c r="U58" t="s">
+        <v>59</v>
+      </c>
+      <c r="V58" t="s">
+        <v>60</v>
+      </c>
+      <c r="W58" t="s">
+        <v>61</v>
+      </c>
+      <c r="X58">
+        <v>2104214</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG58">
+        <v>2</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI58">
+        <v>57300910</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP58">
+        <v>1201</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX58">
+        <v>23001170</v>
+      </c>
+      <c r="AY58">
+        <v>630600</v>
+      </c>
+      <c r="AZ58">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59">
+        <v>24001683</v>
+      </c>
+      <c r="D59">
+        <v>1201</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>0.42</v>
+      </c>
+      <c r="H59">
+        <v>0.42</v>
+      </c>
+      <c r="I59" t="s">
+        <v>55</v>
+      </c>
+      <c r="J59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59" s="2">
+        <v>6750</v>
+      </c>
+      <c r="N59" s="2">
+        <v>6750</v>
+      </c>
+      <c r="O59" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>56</v>
+      </c>
+      <c r="R59" t="s">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <v>15897</v>
+      </c>
+      <c r="T59" t="s">
+        <v>58</v>
+      </c>
+      <c r="U59" t="s">
+        <v>59</v>
+      </c>
+      <c r="V59" t="s">
+        <v>60</v>
+      </c>
+      <c r="W59" t="s">
+        <v>61</v>
+      </c>
+      <c r="X59">
+        <v>2104215</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG59">
+        <v>5</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI59">
+        <v>57300910</v>
+      </c>
+      <c r="AJ59" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN59" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP59">
+        <v>1201</v>
+      </c>
+      <c r="AQ59" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX59">
+        <v>23001170</v>
+      </c>
+      <c r="AY59">
+        <v>630600</v>
+      </c>
+      <c r="AZ59">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60">
+        <v>24001684</v>
+      </c>
+      <c r="D60">
+        <v>1201</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>11.06</v>
+      </c>
+      <c r="H60">
+        <v>11.06</v>
+      </c>
+      <c r="I60" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="2">
+        <v>170100</v>
+      </c>
+      <c r="N60" s="2">
+        <v>170100</v>
+      </c>
+      <c r="O60" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>56</v>
+      </c>
+      <c r="R60" t="s">
+        <v>57</v>
+      </c>
+      <c r="S60">
+        <v>15384</v>
+      </c>
+      <c r="T60" t="s">
+        <v>58</v>
+      </c>
+      <c r="U60" t="s">
+        <v>59</v>
+      </c>
+      <c r="V60" t="s">
+        <v>60</v>
+      </c>
+      <c r="W60" t="s">
+        <v>61</v>
+      </c>
+      <c r="X60">
+        <v>2104216</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG60">
+        <v>126</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI60">
+        <v>57300910</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP60">
+        <v>1201</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX60">
+        <v>23001180</v>
+      </c>
+      <c r="AY60">
+        <v>630600</v>
+      </c>
+      <c r="AZ60">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61">
+        <v>24001685</v>
+      </c>
+      <c r="D61">
+        <v>1201</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61">
+        <v>12.12</v>
+      </c>
+      <c r="H61">
+        <v>12.12</v>
+      </c>
+      <c r="I61" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" t="s">
+        <v>55</v>
+      </c>
+      <c r="L61" s="2">
+        <v>186300</v>
+      </c>
+      <c r="N61" s="2">
+        <v>186300</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>56</v>
+      </c>
+      <c r="R61" t="s">
+        <v>57</v>
+      </c>
+      <c r="S61">
+        <v>15384</v>
+      </c>
+      <c r="T61" t="s">
+        <v>58</v>
+      </c>
+      <c r="U61" t="s">
+        <v>59</v>
+      </c>
+      <c r="V61" t="s">
+        <v>60</v>
+      </c>
+      <c r="W61" t="s">
+        <v>61</v>
+      </c>
+      <c r="X61">
+        <v>2104217</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG61">
+        <v>138</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI61">
+        <v>57300910</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN61" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP61">
+        <v>1201</v>
+      </c>
+      <c r="AQ61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX61">
+        <v>23001180</v>
+      </c>
+      <c r="AY61">
+        <v>630600</v>
+      </c>
+      <c r="AZ61">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62">
+        <v>24001686</v>
+      </c>
+      <c r="D62">
+        <v>1201</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>1.23</v>
+      </c>
+      <c r="H62">
+        <v>1.23</v>
+      </c>
+      <c r="I62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L62" s="2">
+        <v>18900</v>
+      </c>
+      <c r="N62" s="2">
+        <v>18900</v>
+      </c>
+      <c r="O62" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>56</v>
+      </c>
+      <c r="R62" t="s">
+        <v>57</v>
+      </c>
+      <c r="S62">
+        <v>15384</v>
+      </c>
+      <c r="T62" t="s">
+        <v>58</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+      <c r="V62" t="s">
+        <v>60</v>
+      </c>
+      <c r="W62" t="s">
+        <v>61</v>
+      </c>
+      <c r="X62">
+        <v>2104218</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG62">
+        <v>14</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI62">
+        <v>57300910</v>
+      </c>
+      <c r="AJ62" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP62">
+        <v>1201</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX62">
+        <v>23001180</v>
+      </c>
+      <c r="AY62">
+        <v>630600</v>
+      </c>
+      <c r="AZ62">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>24001687</v>
+      </c>
+      <c r="D63">
+        <v>1201</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63">
+        <v>0.18</v>
+      </c>
+      <c r="H63">
+        <v>0.18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" t="s">
+        <v>55</v>
+      </c>
+      <c r="L63" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N63" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O63" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>56</v>
+      </c>
+      <c r="R63" t="s">
+        <v>57</v>
+      </c>
+      <c r="S63">
+        <v>15384</v>
+      </c>
+      <c r="T63" t="s">
+        <v>58</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+      <c r="V63" t="s">
+        <v>60</v>
+      </c>
+      <c r="W63" t="s">
+        <v>61</v>
+      </c>
+      <c r="X63">
+        <v>2104219</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG63">
+        <v>2</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI63">
+        <v>57300910</v>
+      </c>
+      <c r="AJ63" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP63">
+        <v>1201</v>
+      </c>
+      <c r="AQ63" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV63" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX63">
+        <v>23001180</v>
+      </c>
+      <c r="AY63">
+        <v>630600</v>
+      </c>
+      <c r="AZ63">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64">
+        <v>24001688</v>
+      </c>
+      <c r="D64">
+        <v>1201</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64">
+        <v>26.78</v>
+      </c>
+      <c r="H64">
+        <v>26.78</v>
+      </c>
+      <c r="I64" t="s">
+        <v>55</v>
+      </c>
+      <c r="J64" t="s">
+        <v>55</v>
+      </c>
+      <c r="L64" s="2">
+        <v>411750</v>
+      </c>
+      <c r="N64" s="2">
+        <v>411750</v>
+      </c>
+      <c r="O64" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>56</v>
+      </c>
+      <c r="R64" t="s">
+        <v>57</v>
+      </c>
+      <c r="S64">
+        <v>15384</v>
+      </c>
+      <c r="T64" t="s">
+        <v>58</v>
+      </c>
+      <c r="U64" t="s">
+        <v>59</v>
+      </c>
+      <c r="V64" t="s">
+        <v>60</v>
+      </c>
+      <c r="W64" t="s">
+        <v>61</v>
+      </c>
+      <c r="X64">
+        <v>2104220</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG64">
+        <v>305</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI64">
+        <v>57300910</v>
+      </c>
+      <c r="AJ64" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN64" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP64">
+        <v>1201</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX64">
+        <v>23001180</v>
+      </c>
+      <c r="AY64">
+        <v>630600</v>
+      </c>
+      <c r="AZ64">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65">
+        <v>24001689</v>
+      </c>
+      <c r="D65">
+        <v>1201</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65">
+        <v>4.83</v>
+      </c>
+      <c r="H65">
+        <v>4.83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" t="s">
+        <v>55</v>
+      </c>
+      <c r="L65" s="2">
+        <v>74250</v>
+      </c>
+      <c r="N65" s="2">
+        <v>74250</v>
+      </c>
+      <c r="O65" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>56</v>
+      </c>
+      <c r="R65" t="s">
+        <v>57</v>
+      </c>
+      <c r="S65">
+        <v>15384</v>
+      </c>
+      <c r="T65" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" t="s">
+        <v>60</v>
+      </c>
+      <c r="W65" t="s">
+        <v>61</v>
+      </c>
+      <c r="X65">
+        <v>2104222</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA65">
+        <v>1</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG65">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI65">
+        <v>57300910</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP65">
+        <v>1201</v>
+      </c>
+      <c r="AQ65" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX65">
+        <v>23001180</v>
+      </c>
+      <c r="AY65">
+        <v>630600</v>
+      </c>
+      <c r="AZ65">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66">
+        <v>24001690</v>
+      </c>
+      <c r="D66">
+        <v>1201</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66">
+        <v>0.17</v>
+      </c>
+      <c r="H66">
+        <v>0.17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" t="s">
+        <v>55</v>
+      </c>
+      <c r="L66" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N66" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O66" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>56</v>
+      </c>
+      <c r="R66" t="s">
+        <v>57</v>
+      </c>
+      <c r="S66">
+        <v>15487</v>
+      </c>
+      <c r="T66" t="s">
+        <v>58</v>
+      </c>
+      <c r="U66" t="s">
+        <v>59</v>
+      </c>
+      <c r="V66" t="s">
+        <v>60</v>
+      </c>
+      <c r="W66" t="s">
+        <v>61</v>
+      </c>
+      <c r="X66">
+        <v>2104223</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA66">
+        <v>1</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG66">
+        <v>2</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI66">
+        <v>57300910</v>
+      </c>
+      <c r="AJ66" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP66">
+        <v>1201</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX66">
+        <v>23001164</v>
+      </c>
+      <c r="AY66">
+        <v>630600</v>
+      </c>
+      <c r="AZ66">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67">
+        <v>24001691</v>
+      </c>
+      <c r="D67">
+        <v>1201</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67">
+        <v>0.26</v>
+      </c>
+      <c r="H67">
+        <v>0.26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" t="s">
+        <v>55</v>
+      </c>
+      <c r="L67" s="2">
+        <v>4050</v>
+      </c>
+      <c r="N67" s="2">
+        <v>4050</v>
+      </c>
+      <c r="O67" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>56</v>
+      </c>
+      <c r="R67" t="s">
+        <v>57</v>
+      </c>
+      <c r="S67">
+        <v>15487</v>
+      </c>
+      <c r="T67" t="s">
+        <v>58</v>
+      </c>
+      <c r="U67" t="s">
+        <v>59</v>
+      </c>
+      <c r="V67" t="s">
+        <v>60</v>
+      </c>
+      <c r="W67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67">
+        <v>2104224</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG67">
+        <v>3</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI67">
+        <v>57300910</v>
+      </c>
+      <c r="AJ67" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN67" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP67">
+        <v>1201</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV67" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX67">
+        <v>23001164</v>
+      </c>
+      <c r="AY67">
+        <v>630600</v>
+      </c>
+      <c r="AZ67">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68">
+        <v>24001692</v>
+      </c>
+      <c r="D68">
+        <v>1201</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F68" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68">
+        <v>0.11</v>
+      </c>
+      <c r="H68">
+        <v>0.11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1750</v>
+      </c>
+      <c r="N68" s="2">
+        <v>1750</v>
+      </c>
+      <c r="O68" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>56</v>
+      </c>
+      <c r="R68" t="s">
+        <v>57</v>
+      </c>
+      <c r="S68">
+        <v>15487</v>
+      </c>
+      <c r="T68" t="s">
+        <v>58</v>
+      </c>
+      <c r="U68" t="s">
+        <v>59</v>
+      </c>
+      <c r="V68" t="s">
+        <v>60</v>
+      </c>
+      <c r="W68" t="s">
+        <v>61</v>
+      </c>
+      <c r="X68">
+        <v>2104225</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI68">
+        <v>57300910</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP68">
+        <v>1201</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX68">
+        <v>23001164</v>
+      </c>
+      <c r="AY68">
+        <v>630600</v>
+      </c>
+      <c r="AZ68">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>24001693</v>
+      </c>
+      <c r="D69">
+        <v>1201</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F69" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69">
+        <v>3.1</v>
+      </c>
+      <c r="H69">
+        <v>3.1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" s="2">
+        <v>47250</v>
+      </c>
+      <c r="N69" s="2">
+        <v>47250</v>
+      </c>
+      <c r="O69" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>56</v>
+      </c>
+      <c r="R69" t="s">
+        <v>57</v>
+      </c>
+      <c r="S69">
+        <v>15237</v>
+      </c>
+      <c r="T69" t="s">
+        <v>58</v>
+      </c>
+      <c r="U69" t="s">
+        <v>59</v>
+      </c>
+      <c r="V69" t="s">
+        <v>60</v>
+      </c>
+      <c r="W69" t="s">
+        <v>61</v>
+      </c>
+      <c r="X69">
+        <v>2104227</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG69">
+        <v>27</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI69">
+        <v>57300910</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP69">
+        <v>1201</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX69">
+        <v>23001145</v>
+      </c>
+      <c r="AY69">
+        <v>630600</v>
+      </c>
+      <c r="AZ69">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70">
+        <v>24001694</v>
+      </c>
+      <c r="D70">
+        <v>1201</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F70" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70">
+        <v>2.78</v>
+      </c>
+      <c r="H70">
+        <v>2.78</v>
+      </c>
+      <c r="I70" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" s="2">
+        <v>41850</v>
+      </c>
+      <c r="N70" s="2">
+        <v>41850</v>
+      </c>
+      <c r="O70" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>56</v>
+      </c>
+      <c r="R70" t="s">
+        <v>57</v>
+      </c>
+      <c r="S70">
+        <v>15026</v>
+      </c>
+      <c r="T70" t="s">
+        <v>58</v>
+      </c>
+      <c r="U70" t="s">
+        <v>59</v>
+      </c>
+      <c r="V70" t="s">
+        <v>60</v>
+      </c>
+      <c r="W70" t="s">
+        <v>61</v>
+      </c>
+      <c r="X70">
+        <v>2104228</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG70">
+        <v>31</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI70">
+        <v>57300910</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN70" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP70">
+        <v>1201</v>
+      </c>
+      <c r="AQ70" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV70" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX70">
+        <v>23001100</v>
+      </c>
+      <c r="AY70">
+        <v>630600</v>
+      </c>
+      <c r="AZ70">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71">
+        <v>24001695</v>
+      </c>
+      <c r="D71">
+        <v>1201</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F71" t="s">
+        <v>77</v>
+      </c>
+      <c r="G71">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="H71">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="I71" t="s">
+        <v>55</v>
+      </c>
+      <c r="J71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" s="2">
+        <v>268650</v>
+      </c>
+      <c r="N71" s="2">
+        <v>268650</v>
+      </c>
+      <c r="O71" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" t="s">
+        <v>57</v>
+      </c>
+      <c r="S71">
+        <v>15484</v>
+      </c>
+      <c r="T71" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" t="s">
+        <v>59</v>
+      </c>
+      <c r="V71" t="s">
+        <v>60</v>
+      </c>
+      <c r="W71" t="s">
+        <v>61</v>
+      </c>
+      <c r="X71">
+        <v>2104229</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG71">
+        <v>199</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI71">
+        <v>57300910</v>
+      </c>
+      <c r="AJ71" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP71">
+        <v>1201</v>
+      </c>
+      <c r="AQ71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV71" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX71">
+        <v>23001184</v>
+      </c>
+      <c r="AY71">
+        <v>630600</v>
+      </c>
+      <c r="AZ71">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72">
+        <v>24001696</v>
+      </c>
+      <c r="D72">
+        <v>1201</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="H72">
+        <v>35.659999999999997</v>
+      </c>
+      <c r="I72" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" s="2">
+        <v>552150</v>
+      </c>
+      <c r="N72" s="2">
+        <v>552150</v>
+      </c>
+      <c r="O72" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>56</v>
+      </c>
+      <c r="R72" t="s">
+        <v>57</v>
+      </c>
+      <c r="S72">
+        <v>15484</v>
+      </c>
+      <c r="T72" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" t="s">
+        <v>59</v>
+      </c>
+      <c r="V72" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" t="s">
+        <v>61</v>
+      </c>
+      <c r="X72">
+        <v>2104230</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG72">
+        <v>409</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI72">
+        <v>57300910</v>
+      </c>
+      <c r="AJ72" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP72">
+        <v>1201</v>
+      </c>
+      <c r="AQ72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX72">
+        <v>23001184</v>
+      </c>
+      <c r="AY72">
+        <v>630600</v>
+      </c>
+      <c r="AZ72">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73">
+        <v>24001697</v>
+      </c>
+      <c r="D73">
+        <v>1201</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F73" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73">
+        <v>1.92</v>
+      </c>
+      <c r="H73">
+        <v>1.92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" s="2">
+        <v>29700</v>
+      </c>
+      <c r="N73" s="2">
+        <v>29700</v>
+      </c>
+      <c r="O73" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" t="s">
+        <v>57</v>
+      </c>
+      <c r="S73">
+        <v>15484</v>
+      </c>
+      <c r="T73" t="s">
+        <v>58</v>
+      </c>
+      <c r="U73" t="s">
+        <v>59</v>
+      </c>
+      <c r="V73" t="s">
+        <v>60</v>
+      </c>
+      <c r="W73" t="s">
+        <v>61</v>
+      </c>
+      <c r="X73">
+        <v>2104232</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG73">
+        <v>22</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI73">
+        <v>57300910</v>
+      </c>
+      <c r="AJ73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP73">
+        <v>1201</v>
+      </c>
+      <c r="AQ73" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV73" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX73">
+        <v>23001184</v>
+      </c>
+      <c r="AY73">
+        <v>630600</v>
+      </c>
+      <c r="AZ73">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74">
+        <v>24001698</v>
+      </c>
+      <c r="D74">
+        <v>1201</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+      <c r="G74">
+        <v>4.05</v>
+      </c>
+      <c r="H74">
+        <v>4.05</v>
+      </c>
+      <c r="I74" t="s">
+        <v>55</v>
+      </c>
+      <c r="J74" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" s="2">
+        <v>60750</v>
+      </c>
+      <c r="N74" s="2">
+        <v>60750</v>
+      </c>
+      <c r="O74" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>56</v>
+      </c>
+      <c r="R74" t="s">
+        <v>57</v>
+      </c>
+      <c r="S74">
+        <v>15000</v>
+      </c>
+      <c r="T74" t="s">
+        <v>58</v>
+      </c>
+      <c r="U74" t="s">
+        <v>59</v>
+      </c>
+      <c r="V74" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" t="s">
+        <v>61</v>
+      </c>
+      <c r="X74">
+        <v>2104233</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG74">
+        <v>45</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI74">
+        <v>57300910</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP74">
+        <v>1201</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV74" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX74">
+        <v>23001107</v>
+      </c>
+      <c r="AY74">
+        <v>630600</v>
+      </c>
+      <c r="AZ74">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75">
+        <v>24001699</v>
+      </c>
+      <c r="D75">
+        <v>1201</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F75" t="s">
+        <v>77</v>
+      </c>
+      <c r="G75">
+        <v>7.92</v>
+      </c>
+      <c r="H75">
+        <v>7.92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" s="2">
+        <v>118800</v>
+      </c>
+      <c r="N75" s="2">
+        <v>118800</v>
+      </c>
+      <c r="O75" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>56</v>
+      </c>
+      <c r="R75" t="s">
+        <v>57</v>
+      </c>
+      <c r="S75">
+        <v>15000</v>
+      </c>
+      <c r="T75" t="s">
+        <v>58</v>
+      </c>
+      <c r="U75" t="s">
+        <v>59</v>
+      </c>
+      <c r="V75" t="s">
+        <v>60</v>
+      </c>
+      <c r="W75" t="s">
+        <v>61</v>
+      </c>
+      <c r="X75">
+        <v>2104234</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA75">
+        <v>1</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG75">
+        <v>88</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI75">
+        <v>57300910</v>
+      </c>
+      <c r="AJ75" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP75">
+        <v>1201</v>
+      </c>
+      <c r="AQ75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX75">
+        <v>23001107</v>
+      </c>
+      <c r="AY75">
+        <v>630600</v>
+      </c>
+      <c r="AZ75">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76">
+        <v>24001701</v>
+      </c>
+      <c r="D76">
+        <v>1201</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F76" t="s">
+        <v>77</v>
+      </c>
+      <c r="G76">
+        <v>0.72</v>
+      </c>
+      <c r="H76">
+        <v>0.72</v>
+      </c>
+      <c r="I76" t="s">
+        <v>55</v>
+      </c>
+      <c r="J76" t="s">
+        <v>55</v>
+      </c>
+      <c r="L76" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N76" s="2">
+        <v>10800</v>
+      </c>
+      <c r="O76" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>56</v>
+      </c>
+      <c r="R76" t="s">
+        <v>57</v>
+      </c>
+      <c r="S76">
+        <v>15026</v>
+      </c>
+      <c r="T76" t="s">
+        <v>58</v>
+      </c>
+      <c r="U76" t="s">
+        <v>59</v>
+      </c>
+      <c r="V76" t="s">
+        <v>60</v>
+      </c>
+      <c r="W76" t="s">
+        <v>61</v>
+      </c>
+      <c r="X76">
+        <v>2104237</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG76">
+        <v>8</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI76">
+        <v>57300910</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN76" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP76">
+        <v>1201</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX76">
+        <v>23001100</v>
+      </c>
+      <c r="AY76">
+        <v>630600</v>
+      </c>
+      <c r="AZ76">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77">
+        <v>24001702</v>
+      </c>
+      <c r="D77">
+        <v>1201</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F77" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77">
+        <v>0.63</v>
+      </c>
+      <c r="H77">
+        <v>0.63</v>
+      </c>
+      <c r="I77" t="s">
+        <v>55</v>
+      </c>
+      <c r="J77" t="s">
+        <v>55</v>
+      </c>
+      <c r="L77" s="2">
+        <v>9450</v>
+      </c>
+      <c r="N77" s="2">
+        <v>9450</v>
+      </c>
+      <c r="O77" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>56</v>
+      </c>
+      <c r="R77" t="s">
+        <v>57</v>
+      </c>
+      <c r="S77">
+        <v>15092</v>
+      </c>
+      <c r="T77" t="s">
+        <v>58</v>
+      </c>
+      <c r="U77" t="s">
+        <v>59</v>
+      </c>
+      <c r="V77" t="s">
+        <v>60</v>
+      </c>
+      <c r="W77" t="s">
+        <v>61</v>
+      </c>
+      <c r="X77">
+        <v>2104238</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG77">
+        <v>7</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI77">
+        <v>57300910</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP77">
+        <v>1201</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX77">
+        <v>23001141</v>
+      </c>
+      <c r="AY77">
+        <v>630600</v>
+      </c>
+      <c r="AZ77">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>24001654</v>
+      </c>
+      <c r="D78">
+        <v>1201</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F78" t="s">
+        <v>77</v>
+      </c>
+      <c r="G78">
+        <v>-7.21</v>
+      </c>
+      <c r="I78" t="s">
+        <v>55</v>
+      </c>
+      <c r="J78" t="s">
+        <v>55</v>
+      </c>
+      <c r="K78">
+        <v>-7.21</v>
+      </c>
+      <c r="O78" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>56</v>
+      </c>
+      <c r="R78" t="s">
+        <v>57</v>
+      </c>
+      <c r="S78">
+        <v>15803</v>
+      </c>
+      <c r="T78" t="s">
+        <v>58</v>
+      </c>
+      <c r="U78" t="s">
+        <v>59</v>
+      </c>
+      <c r="V78" t="s">
+        <v>70</v>
+      </c>
+      <c r="W78" t="s">
+        <v>71</v>
+      </c>
+      <c r="X78">
+        <v>2104106</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA78">
+        <v>2</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI78">
+        <v>57300910</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s">
         <v>83</v>
       </c>
-      <c r="G48">
-        <v>669.93</v>
-      </c>
-      <c r="H48">
-        <v>673.88</v>
-      </c>
-      <c r="K48">
-        <v>-3.95</v>
-      </c>
-      <c r="L48" s="2">
-        <v>10479860</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="AM78" s="1">
+        <v>45271</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP78">
+        <v>1201</v>
+      </c>
+      <c r="AQ78" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV78" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX78">
+        <v>23001164</v>
+      </c>
+      <c r="AY78">
+        <v>630600</v>
+      </c>
+      <c r="AZ78">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79">
+        <v>24001655</v>
+      </c>
+      <c r="D79">
+        <v>1201</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F79" t="s">
+        <v>77</v>
+      </c>
+      <c r="G79">
+        <v>-0.06</v>
+      </c>
+      <c r="I79" t="s">
+        <v>55</v>
+      </c>
+      <c r="J79" t="s">
+        <v>55</v>
+      </c>
+      <c r="K79">
+        <v>-0.06</v>
+      </c>
+      <c r="O79" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>56</v>
+      </c>
+      <c r="R79" t="s">
+        <v>57</v>
+      </c>
+      <c r="S79">
+        <v>15803</v>
+      </c>
+      <c r="T79" t="s">
+        <v>58</v>
+      </c>
+      <c r="U79" t="s">
+        <v>59</v>
+      </c>
+      <c r="V79" t="s">
+        <v>70</v>
+      </c>
+      <c r="W79" t="s">
+        <v>71</v>
+      </c>
+      <c r="X79">
+        <v>2104106</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA79">
+        <v>3</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI79">
+        <v>57300910</v>
+      </c>
+      <c r="AJ79" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>45271</v>
+      </c>
+      <c r="AN79" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP79">
+        <v>1201</v>
+      </c>
+      <c r="AQ79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV79" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX79">
+        <v>23001145</v>
+      </c>
+      <c r="AY79">
+        <v>630600</v>
+      </c>
+      <c r="AZ79">
+        <v>1201.6306</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80">
+        <v>846.54</v>
+      </c>
+      <c r="H80">
+        <v>857.76</v>
+      </c>
+      <c r="K80">
+        <v>-11.22</v>
+      </c>
+      <c r="L80" s="2">
+        <v>13334560</v>
+      </c>
+      <c r="M80" s="2">
         <v>-60840</v>
       </c>
-      <c r="N48" s="2">
-        <v>10419020</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>4429</v>
+      <c r="N80" s="2">
+        <v>13273720</v>
+      </c>
+      <c r="AG80" s="2">
+        <v>6504</v>
       </c>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>84</v>
+    <row r="81" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81">
+        <v>846.54</v>
+      </c>
+      <c r="H81">
+        <v>846.54</v>
+      </c>
+      <c r="L81" s="2">
+        <v>13273720</v>
+      </c>
+      <c r="N81" s="2">
+        <v>13273720</v>
+      </c>
+      <c r="AG81" s="2">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="82" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82">
+        <v>846.54</v>
+      </c>
+      <c r="H82">
+        <v>857.76</v>
+      </c>
+      <c r="K82">
+        <v>-11.22</v>
+      </c>
+      <c r="L82" s="2">
+        <v>13334560</v>
+      </c>
+      <c r="M82" s="2">
+        <v>-60840</v>
+      </c>
+      <c r="N82" s="2">
+        <v>13273720</v>
+      </c>
+      <c r="AG82" s="2">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="83" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630600.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.630600.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D757F265-D0DC-41B8-9246-4DA2D9D13037}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9405FBB-0A6C-4434-8C28-B47438C09856}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-25T060544.190" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T060616.503" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
